--- a/Labal_making/Labal_making/입력.xlsx
+++ b/Labal_making/Labal_making/입력.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\라벨제조기\Labal_making\Labal_making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B711BA0-15FC-460D-B17D-A60D144EE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617E728-43D6-4AB9-BA4E-760A3930EECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="105" windowWidth="14700" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Labal_making/Labal_making/입력.xlsx
+++ b/Labal_making/Labal_making/입력.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\라벨제조기\Labal_making\Labal_making\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\라벨제조기\Labal_making\MakingLabels_to\Labal_making\Labal_making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617E728-43D6-4AB9-BA4E-760A3930EECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1F1F8-E4F8-476A-B2AD-5DF9B324E229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="105" windowWidth="14700" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,11 +38,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">큰거 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은거</t>
+    <t>개수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +365,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -390,9 +386,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
